--- a/GradeDistributionsDB/Spring2014/Output/Spring2014 EL.xlsx
+++ b/GradeDistributionsDB/Spring2014/Output/Spring2014 EL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>Course</t>
   </si>
@@ -160,13 +160,16 @@
     <t>ULBRICH M</t>
   </si>
   <si>
-    <t>52.94%</t>
-  </si>
-  <si>
-    <t>20.59%</t>
-  </si>
-  <si>
-    <t>26.47%</t>
+    <t>2.08%</t>
+  </si>
+  <si>
+    <t>47.92%</t>
+  </si>
+  <si>
+    <t>22.92%</t>
+  </si>
+  <si>
+    <t>20.83%</t>
   </si>
   <si>
     <t>DOWNEY M</t>
@@ -214,133 +217,139 @@
     <t>ELIG-200</t>
   </si>
   <si>
+    <t>34.38%</t>
+  </si>
+  <si>
+    <t>9.38%</t>
+  </si>
+  <si>
+    <t>ELIG-250</t>
+  </si>
+  <si>
     <t>31.25%</t>
   </si>
   <si>
+    <t>56.25%</t>
+  </si>
+  <si>
+    <t>COOPER B</t>
+  </si>
+  <si>
+    <t>ELIG-300</t>
+  </si>
+  <si>
+    <t>9.52%</t>
+  </si>
+  <si>
+    <t>19.05%</t>
+  </si>
+  <si>
+    <t>ELIL-100</t>
+  </si>
+  <si>
+    <t>WINSTON V</t>
+  </si>
+  <si>
+    <t>28.00%</t>
+  </si>
+  <si>
+    <t>12.00%</t>
+  </si>
+  <si>
+    <t>ELIL-200</t>
+  </si>
+  <si>
+    <t>10.53%</t>
+  </si>
+  <si>
+    <t>63.16%</t>
+  </si>
+  <si>
+    <t>15.79%</t>
+  </si>
+  <si>
+    <t>WEST V</t>
+  </si>
+  <si>
+    <t>46.67%</t>
+  </si>
+  <si>
+    <t>26.67%</t>
+  </si>
+  <si>
+    <t>ELIL-250</t>
+  </si>
+  <si>
+    <t>38.89%</t>
+  </si>
+  <si>
+    <t>16.67%</t>
+  </si>
+  <si>
+    <t>5.56%</t>
+  </si>
+  <si>
+    <t>ELIL-300</t>
+  </si>
+  <si>
+    <t>43.33%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>ELIO-100</t>
+  </si>
+  <si>
+    <t>CHICK N</t>
+  </si>
+  <si>
+    <t>78.57%</t>
+  </si>
+  <si>
+    <t>ELIO-200</t>
+  </si>
+  <si>
+    <t>58.33%</t>
+  </si>
+  <si>
+    <t>8.33%</t>
+  </si>
+  <si>
+    <t>4.00%</t>
+  </si>
+  <si>
+    <t>76.00%</t>
+  </si>
+  <si>
+    <t>8.00%</t>
+  </si>
+  <si>
+    <t>ELIO-250</t>
+  </si>
+  <si>
+    <t>53.33%</t>
+  </si>
+  <si>
+    <t>ELIO-300</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>64.29%</t>
+  </si>
+  <si>
+    <t>10.71%</t>
+  </si>
+  <si>
+    <t>ELIR-100</t>
+  </si>
+  <si>
     <t>12.50%</t>
-  </si>
-  <si>
-    <t>ELIG-250</t>
-  </si>
-  <si>
-    <t>56.25%</t>
-  </si>
-  <si>
-    <t>COOPER B</t>
-  </si>
-  <si>
-    <t>ELIG-300</t>
-  </si>
-  <si>
-    <t>9.52%</t>
-  </si>
-  <si>
-    <t>19.05%</t>
-  </si>
-  <si>
-    <t>ELIL-100</t>
-  </si>
-  <si>
-    <t>WINSTON V</t>
-  </si>
-  <si>
-    <t>28.00%</t>
-  </si>
-  <si>
-    <t>12.00%</t>
-  </si>
-  <si>
-    <t>ELIL-200</t>
-  </si>
-  <si>
-    <t>10.53%</t>
-  </si>
-  <si>
-    <t>63.16%</t>
-  </si>
-  <si>
-    <t>15.79%</t>
-  </si>
-  <si>
-    <t>WEST V</t>
-  </si>
-  <si>
-    <t>46.67%</t>
-  </si>
-  <si>
-    <t>26.67%</t>
-  </si>
-  <si>
-    <t>ELIL-250</t>
-  </si>
-  <si>
-    <t>38.89%</t>
-  </si>
-  <si>
-    <t>16.67%</t>
-  </si>
-  <si>
-    <t>5.56%</t>
-  </si>
-  <si>
-    <t>ELIL-300</t>
-  </si>
-  <si>
-    <t>43.33%</t>
-  </si>
-  <si>
-    <t>30.00%</t>
-  </si>
-  <si>
-    <t>ELIO-100</t>
-  </si>
-  <si>
-    <t>CHICK N</t>
-  </si>
-  <si>
-    <t>78.57%</t>
-  </si>
-  <si>
-    <t>ELIO-200</t>
-  </si>
-  <si>
-    <t>58.33%</t>
-  </si>
-  <si>
-    <t>8.33%</t>
-  </si>
-  <si>
-    <t>4.00%</t>
-  </si>
-  <si>
-    <t>76.00%</t>
-  </si>
-  <si>
-    <t>8.00%</t>
-  </si>
-  <si>
-    <t>ELIO-250</t>
-  </si>
-  <si>
-    <t>53.33%</t>
-  </si>
-  <si>
-    <t>ELIO-300</t>
-  </si>
-  <si>
-    <t>10.00%</t>
-  </si>
-  <si>
-    <t>3.57%</t>
-  </si>
-  <si>
-    <t>64.29%</t>
-  </si>
-  <si>
-    <t>10.71%</t>
-  </si>
-  <si>
-    <t>ELIR-100</t>
   </si>
   <si>
     <t>21.05%</t>
@@ -1026,50 +1035,50 @@
         <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>2.0477</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
         <v>2.2</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
         <v>53</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1080,36 +1089,36 @@
         <v>3.286</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="n">
         <v>3.357</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1126,16 +1135,16 @@
         <v>3.2</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
         <v>40</v>
@@ -1143,12 +1152,12 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" t="n">
         <v>2.769</v>
@@ -1180,7 +1189,7 @@
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -1194,7 +1203,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1202,16 +1211,16 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>3.0625</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
         <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1222,21 +1231,21 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" t="n">
         <v>3.062</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s">
         <v>23</v>
@@ -1250,7 +1259,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" t="n">
         <v>2.312</v>
@@ -1273,27 +1282,27 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C39" t="n">
         <v>1.619</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s">
         <v>44</v>
@@ -1301,55 +1310,55 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C42" t="n">
         <v>2.3105</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" t="n">
         <v>2.737</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" t="s">
         <v>81</v>
-      </c>
-      <c r="G45" t="s">
-        <v>79</v>
       </c>
       <c r="H45" t="s">
         <v>10</v>
@@ -1357,35 +1366,35 @@
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C46" t="n">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
         <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" t="n">
         <v>2.556</v>
@@ -1394,21 +1403,21 @@
         <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1422,10 +1431,10 @@
         <v>40</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G52" t="s">
         <v>10</v>
@@ -1436,12 +1445,12 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C55" t="n">
         <v>2.643</v>
@@ -1450,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
@@ -1459,7 +1468,7 @@
         <v>10</v>
       </c>
       <c r="H55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1473,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F56" t="s">
         <v>44</v>
@@ -1482,12 +1491,12 @@
         <v>40</v>
       </c>
       <c r="H56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1498,52 +1507,52 @@
         <v>2.667</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="B60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C60" t="n">
         <v>2.7145</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" t="s">
+        <v>102</v>
+      </c>
+      <c r="H60" t="s">
         <v>100</v>
-      </c>
-      <c r="G60" t="s">
-        <v>100</v>
-      </c>
-      <c r="H60" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C63" t="n">
         <v>2.067</v>
@@ -1552,13 +1561,13 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F63" t="s">
         <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H63" t="s">
         <v>40</v>
@@ -1566,30 +1575,30 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="B66" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" t="s">
+        <v>54</v>
+      </c>
+      <c r="F66" t="s">
+        <v>106</v>
+      </c>
+      <c r="G66" t="s">
         <v>53</v>
       </c>
-      <c r="F66" t="s">
-        <v>104</v>
-      </c>
-      <c r="G66" t="s">
-        <v>52</v>
-      </c>
       <c r="H66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -1600,75 +1609,75 @@
         <v>2.4285</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F67" t="s">
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H67" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="B70" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C70" t="n">
         <v>1.812</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="G70" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="H70" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C71" t="n">
         <v>1.79</v>
       </c>
       <c r="D71" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E71" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" t="s">
         <v>81</v>
       </c>
-      <c r="F71" t="s">
-        <v>79</v>
-      </c>
       <c r="G71" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H71" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -1679,39 +1688,39 @@
         <v>2.526</v>
       </c>
       <c r="D74" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F74" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G74" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="B75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" t="n">
         <v>2.95</v>
       </c>
       <c r="D75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E75" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F75" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G75" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H75" t="s">
         <v>10</v>
@@ -1719,12 +1728,12 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C78" t="n">
         <v>1.944</v>
@@ -1736,10 +1745,10 @@
         <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s">
         <v>21</v>
@@ -1747,7 +1756,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -1761,13 +1770,13 @@
         <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H81" t="s">
         <v>32</v>
@@ -1775,35 +1784,35 @@
     </row>
     <row r="82" spans="1:8">
       <c r="B82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C82" t="n">
         <v>2.93</v>
       </c>
       <c r="D82" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="E82" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H82" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="B85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C85" t="n">
         <v>2.139</v>
@@ -1812,21 +1821,21 @@
         <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F85" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G85" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H85" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -1837,13 +1846,13 @@
         <v>2.647</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E88" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F88" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G88" t="s">
         <v>10</v>
@@ -1854,7 +1863,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C89" t="n">
         <v>3.312</v>
@@ -1863,7 +1872,7 @@
         <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F89" t="s">
         <v>23</v>
@@ -1877,7 +1886,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -1905,18 +1914,18 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="B95" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C95" t="n">
         <v>2.75</v>
       </c>
       <c r="D95" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E95" t="s">
         <v>24</v>
@@ -1928,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="H95" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -1939,16 +1948,16 @@
         <v>1.933</v>
       </c>
       <c r="D96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E96" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F96" t="s">
         <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H96" t="s">
         <v>44</v>

--- a/GradeDistributionsDB/Spring2014/Output/Spring2014 EL.xlsx
+++ b/GradeDistributionsDB/Spring2014/Output/Spring2014 EL.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
   <si>
     <t>Course</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>% of F's</t>
+  </si>
+  <si>
+    <t>% of Q Drop's</t>
   </si>
   <si>
     <t>ELIC-100</t>
@@ -447,12 +450,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -746,15 +748,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -779,1188 +781,1329 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>1.143</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>2.385</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>1.778</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>2.562</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
-        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>2.647</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
         <v>2.154</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
         <v>2.273</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
       <c r="H13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="n">
         <v>2.6</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
         <v>41</v>
       </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="n">
         <v>2.333</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="n">
         <v>2.588</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="n">
         <v>2.0477</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="n">
         <v>2.2</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
         <v>54</v>
       </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
         <v>3.286</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="n">
         <v>3.357</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" t="n">
         <v>3.2</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" t="n">
         <v>2.769</v>
       </c>
       <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
         <v>16</v>
       </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" t="n">
         <v>2.692</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" t="n">
         <v>3.0625</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
         <v>24</v>
       </c>
-      <c r="F32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" t="n">
         <v>3.062</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" t="n">
         <v>2.312</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
         <v>24</v>
       </c>
-      <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
       <c r="H36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" t="s">
-        <v>72</v>
       </c>
       <c r="C39" t="n">
         <v>1.619</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C42" t="n">
         <v>2.3105</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45" t="n">
         <v>2.737</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" t="s">
         <v>82</v>
       </c>
-      <c r="F45" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" t="s">
-        <v>81</v>
-      </c>
       <c r="H45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C46" t="n">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" t="n">
         <v>2.556</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C52" t="n">
         <v>2.4335</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C55" t="n">
         <v>2.643</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C56" t="n">
         <v>2.2</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="B59" t="s">
         <v>40</v>
-      </c>
-      <c r="H56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="B59" t="s">
-        <v>39</v>
       </c>
       <c r="C59" t="n">
         <v>2.667</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H59" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C60" t="n">
         <v>2.7145</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E60" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60" t="s">
         <v>101</v>
       </c>
-      <c r="F60" t="s">
-        <v>102</v>
-      </c>
-      <c r="G60" t="s">
-        <v>102</v>
-      </c>
-      <c r="H60" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63" t="n">
         <v>2.067</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H63" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66" t="s">
         <v>54</v>
       </c>
-      <c r="F66" t="s">
-        <v>106</v>
-      </c>
-      <c r="G66" t="s">
-        <v>53</v>
-      </c>
       <c r="H66" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C67" t="n">
         <v>2.4285</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C70" t="n">
         <v>1.812</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F70" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G70" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C71" t="n">
         <v>1.79</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G71" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C74" t="n">
         <v>2.526</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E74" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" t="s">
+        <v>116</v>
+      </c>
+      <c r="G74" t="s">
         <v>82</v>
       </c>
-      <c r="F74" t="s">
-        <v>115</v>
-      </c>
-      <c r="G74" t="s">
-        <v>81</v>
-      </c>
       <c r="H74" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C75" t="n">
         <v>2.95</v>
       </c>
       <c r="D75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F75" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G75" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C78" t="n">
         <v>1.944</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C81" t="n">
         <v>1.231</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H81" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C82" t="n">
         <v>2.93</v>
       </c>
       <c r="D82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E82" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H82" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C85" t="n">
         <v>2.139</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E85" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F85" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C88" t="n">
         <v>2.647</v>
       </c>
       <c r="D88" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E88" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" t="s">
         <v>128</v>
       </c>
-      <c r="F88" t="s">
-        <v>127</v>
-      </c>
       <c r="G88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C89" t="n">
         <v>3.312</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E89" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C92" t="n">
         <v>2.769</v>
       </c>
       <c r="D92" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" t="s">
         <v>33</v>
       </c>
-      <c r="E92" t="s">
-        <v>32</v>
-      </c>
       <c r="F92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C95" t="n">
         <v>2.75</v>
       </c>
       <c r="D95" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="B96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C96" t="n">
         <v>1.933</v>
       </c>
       <c r="D96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E96" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H96" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="I96" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
